--- a/data_diem.xlsx
+++ b/data_diem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Mã học phần</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Vũ Đức Hiển</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
 </sst>
 </file>
@@ -502,10 +499,10 @@
         <v>17</v>
       </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
         <v>10</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -534,7 +531,7 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -546,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data_diem.xlsx
+++ b/data_diem.xlsx
@@ -15,7 +15,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>Năm học</t>
+  </si>
+  <si>
+    <t>2016-2017</t>
+  </si>
+  <si>
+    <t>Học kì</t>
+  </si>
   <si>
     <t>Mã học phần</t>
   </si>
@@ -26,7 +35,7 @@
     <t xml:space="preserve"> Tên học phần</t>
   </si>
   <si>
-    <t>nguyen li co ban chu nghia mac le nin</t>
+    <t>Nguyên lí cơ bản Mac-Lenin</t>
   </si>
   <si>
     <t xml:space="preserve"> Tên giáo viên</t>
@@ -75,6 +84,15 @@
   </si>
   <si>
     <t>Vũ Đức Hiển</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Huy</t>
+  </si>
+  <si>
+    <t>Huyền Trang</t>
   </si>
 </sst>
 </file>
@@ -413,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,128 +443,208 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>4020101</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4020101</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="I6" t="s">
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="J6" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1221050140</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I8" t="s">
         <v>17</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1221050220</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1221050140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>9.4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1221050220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>7.3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1221050139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>7.3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1221050420</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>8.5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data_diem.xlsx
+++ b/data_diem.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Năm học</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Nguyễn Đắc Huy</t>
+  </si>
+  <si>
+    <t>C+</t>
   </si>
   <si>
     <t>Huyền Trang</t>
@@ -597,7 +600,7 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -606,13 +609,13 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -623,7 +626,7 @@
         <v>1221050420</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>

--- a/data_diem.xlsx
+++ b/data_diem.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve"> Tên giáo viên</t>
   </si>
   <si>
-    <t>Trần Ngọc A</t>
+    <t>Trần Ngọc A1</t>
   </si>
   <si>
     <t>STT</t>
@@ -77,25 +77,25 @@
     <t>Ngocduc</t>
   </si>
   <si>
-    <t>DCCTKT57</t>
+    <t>DCCTTKT57</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Vũ Đức Hiển</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Huy</t>
+  </si>
+  <si>
+    <t>Huyền Trang</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Vũ Đức Hiển</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Nguyễn Đắc Huy</t>
-  </si>
-  <si>
-    <t>C+</t>
-  </si>
-  <si>
-    <t>Huyền Trang</t>
   </si>
 </sst>
 </file>
@@ -536,19 +536,19 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>9.4</v>
+        <v>5.6</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -600,10 +600,10 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -612,10 +612,10 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>6.5</v>
+        <v>7.7</v>
       </c>
       <c r="J11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -626,7 +626,7 @@
         <v>1221050420</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -647,7 +647,7 @@
         <v>8.5</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
